--- a/SoilBoringLog2.xlsx
+++ b/SoilBoringLog2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE189F08-EEE6-46D3-A318-DC7C6B77515F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34B2894-B279-4DFB-AF0C-6498DA73F346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Depth, m</t>
   </si>
@@ -90,9 +90,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>SS-10</t>
-  </si>
-  <si>
     <t>SS-1</t>
   </si>
   <si>
@@ -106,18 +103,6 @@
   </si>
   <si>
     <t>SS-5</t>
-  </si>
-  <si>
-    <t>SS-6</t>
-  </si>
-  <si>
-    <t>SS-7</t>
-  </si>
-  <si>
-    <t>SS-8</t>
-  </si>
-  <si>
-    <t>SS-9</t>
   </si>
 </sst>
 </file>
@@ -478,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C815177A-254B-43AF-87E3-B3FBD101C2A0}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +549,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -573,252 +558,122 @@
         <v>1.45</v>
       </c>
       <c r="D4">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>59.1</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>27.05</v>
       </c>
       <c r="N4">
-        <v>13</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1.95</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>1.02</v>
       </c>
       <c r="E5">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>77.010000000000005</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>27.55</v>
       </c>
       <c r="N5">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2.4500000000000002</v>
+        <v>3.45</v>
       </c>
       <c r="D6">
-        <v>6.5</v>
+        <v>3.73</v>
       </c>
       <c r="E6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>93.99</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>33.869999999999997</v>
       </c>
       <c r="N6">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="C7">
-        <v>3.45</v>
+        <v>4.95</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>3.84</v>
       </c>
       <c r="E7">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>48.09</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>15.35</v>
       </c>
       <c r="N7">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4.95</v>
+        <v>6.45</v>
       </c>
       <c r="D8">
-        <v>12.3</v>
+        <v>3.34</v>
       </c>
       <c r="E8">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>63.22</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>17.3</v>
       </c>
       <c r="N8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>6.25</v>
-      </c>
-      <c r="D9">
-        <v>11.3</v>
-      </c>
-      <c r="E9">
-        <v>1.8</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9">
-        <v>20</v>
-      </c>
-      <c r="N9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>6.25</v>
-      </c>
-      <c r="C10">
-        <v>6.5</v>
-      </c>
-      <c r="D10">
-        <v>14.2</v>
-      </c>
-      <c r="E10">
-        <v>1.8</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <v>22</v>
-      </c>
-      <c r="N10">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11">
-        <v>6.5</v>
-      </c>
-      <c r="C11">
-        <v>6.73</v>
-      </c>
-      <c r="D11">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E11">
-        <v>1.8</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>23</v>
-      </c>
-      <c r="N11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
-        <v>7.5</v>
-      </c>
-      <c r="C12">
-        <v>7.63</v>
-      </c>
-      <c r="D12">
-        <v>6.6</v>
-      </c>
-      <c r="E12">
-        <v>1.8</v>
-      </c>
-      <c r="F12">
-        <v>84</v>
-      </c>
-      <c r="G12">
-        <v>15</v>
-      </c>
-      <c r="N12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>9.1</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>1.8</v>
-      </c>
-      <c r="F13">
-        <v>84</v>
-      </c>
-      <c r="G13">
-        <v>15</v>
-      </c>
-      <c r="N13">
         <v>100</v>
       </c>
     </row>

--- a/SoilBoringLog2.xlsx
+++ b/SoilBoringLog2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34B2894-B279-4DFB-AF0C-6498DA73F346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5158F931-787F-4883-B854-490E0DC18449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +584,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="D5">
-        <v>1.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E5">
         <v>1.83</v>
